--- a/Proyecto/Proyecto_Tablas_Y_SS/PreparacionSalidas.xlsx
+++ b/Proyecto/Proyecto_Tablas_Y_SS/PreparacionSalidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UVG\Semestre 4\Digital_1\Laboratorio_4\Digital_Repositorio\Proyecto\Proyecto_Tablas_Y_SS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2187ED64-BACC-4F2F-9268-0F0D98435B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC15C0-66D1-4415-AF73-2515C38C6E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2484" windowWidth="16584" windowHeight="9420" xr2:uid="{58779EFE-8047-4296-BE63-B881813E2444}"/>
+    <workbookView xWindow="12612" yWindow="3696" windowWidth="16584" windowHeight="9420" xr2:uid="{58779EFE-8047-4296-BE63-B881813E2444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
